--- a/02_data/cleandata/df_rob_withcompletestudycode.xlsx
+++ b/02_data/cleandata/df_rob_withcompletestudycode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,96 +430,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>van der Steur (2020)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Leadbeater et al</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cross-sectional</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>leadbeater_2019</t>
+          <t>konings_2012</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Marconi (2016)</t>
+          <t>Henquet (2005)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miettunen et al</t>
+          <t>Stefanis et al</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cross-sectional</t>
+          <t>Cohort</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>miettunen_2008</t>
+          <t>stefanis_2004</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -549,10 +494,15 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -566,12 +516,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kiburi (2021)</t>
+          <t>Henquet (2005)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mackie et al</t>
+          <t>van Os et al</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,12 +531,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mackie_2013</t>
+          <t>van os_2002</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +551,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -631,19 +581,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sorkhou (2021)</t>
+          <t>Henquet (2005)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ferdinand et al</t>
+          <t>Fergusson et al</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -653,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ferdinand_2005</t>
+          <t>fergusson_2003</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -688,7 +638,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -698,24 +648,24 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sorkhou (2021)</t>
+          <t>Moore (2007)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kuepper et al</t>
+          <t>Fergusson et al (2005)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -725,12 +675,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kuepper_2011</t>
+          <t>fergusson_2005</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -760,7 +710,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -775,19 +725,19 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sorkhou (2021)</t>
+          <t>Henquet (2005)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bechtold et al</t>
+          <t>Henquet et al</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -797,12 +747,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>bechtold_2016</t>
+          <t>henquet_2005</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -817,7 +767,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -832,7 +782,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -847,19 +797,19 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sorkhou (2021)</t>
+          <t>Marconi (2016)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bechtold et al</t>
+          <t>Tien et al</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -869,12 +819,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bechtold_2015</t>
+          <t>tien_1990</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -889,12 +839,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -904,7 +854,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -919,91 +869,31 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sorkhou (2021)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rossler et al</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rössler_2012</t>
+          <t>arseneault_2002</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Godin (2022)</t>
+          <t>Henquet (2005)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gage et al</t>
+          <t>Fergusson et al</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1013,12 +903,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gage_2014</t>
+          <t>fergusson_2005</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1033,12 +923,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1048,7 +938,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1063,19 +953,19 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>van der Meer (2012)</t>
+          <t>Moore (2007)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Korver et al</t>
+          <t>Fergusson et al (2005)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1085,12 +975,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>korver_2010</t>
+          <t>fergusson_2005</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1110,7 +1000,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1120,7 +1010,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1130,24 +1020,24 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Henquet (2005)</t>
+          <t>Marconi (2016)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>van Os et al</t>
+          <t>Wiles et al</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1157,12 +1047,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>van os_2002</t>
+          <t>wiles_2006</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1177,12 +1067,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1214,12 +1104,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Henquet (2005)</t>
+          <t>Marconi (2016)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fergusson et al</t>
+          <t>Zammit et al</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1229,12 +1119,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>fergusson_2003</t>
+          <t>zammit_2011</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1249,7 +1139,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1274,7 +1164,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1286,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Henquet (2005)</t>
+          <t>Hosseini (2019)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fergusson et al</t>
+          <t>Zammit et al</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1301,12 +1191,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>fergusson_2005</t>
+          <t>zammit_2011</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1321,12 +1211,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1336,7 +1226,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1346,24 +1236,24 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Henquet (2005)</t>
+          <t>Marconi (2016)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stefanis et al</t>
+          <t>Zammit et al</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1373,12 +1263,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>stefanis_2004</t>
+          <t>zammit_2002</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1393,7 +1283,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1423,19 +1313,19 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Henquet (2005)</t>
+          <t>Hosseini (2019)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Henquet et al</t>
+          <t>Zammit et al</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1445,12 +1335,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>henquet_2005</t>
+          <t>zammit_2002</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1465,12 +1355,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1500,86 +1390,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Henquet (2005)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Henquet et al</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>henquet_2004</t>
+          <t>weiser_2002</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hosseini (2019)</t>
+          <t>Sorkhou (2021)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Andreasson et al (1987)</t>
+          <t>Rossler et al</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1589,12 +1419,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>andreasson_1987</t>
+          <t>rössler_2012</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1609,7 +1439,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1624,7 +1454,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1646,12 +1476,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hosseini (2019)</t>
+          <t>Sorkhou (2021)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Andreasson et al (1987)</t>
+          <t>Ferdinand et al</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1661,12 +1491,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>andreasson_1987</t>
+          <t>ferdinand_2005</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1681,7 +1511,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1711,19 +1541,19 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marconi (2016)</t>
+          <t>Sorkhou (2021)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tien et al</t>
+          <t>Bechtold et al</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1733,12 +1563,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>tien_1990</t>
+          <t>bechtold_2016</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1753,12 +1583,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1768,7 +1598,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1783,19 +1613,19 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marconi (2016)</t>
+          <t>Sorkhou (2021)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wiles et al</t>
+          <t>Kuepper et al</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1805,12 +1635,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>wiles_2006</t>
+          <t>kuepper_2011</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1825,12 +1655,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1867,22 +1697,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>McGrath et al</t>
+          <t>Miettunen et al</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>Cross-sectional</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>mcgrath_2010</t>
+          <t>miettunen_2008</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1897,7 +1727,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1920,26 +1750,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Marconi (2016)</t>
+          <t>Sorkhou (2021)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zammit et al</t>
+          <t>Mustonen et al</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1949,12 +1774,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>zammit_2011</t>
+          <t>mustonen_2018</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1974,7 +1799,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1984,7 +1809,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1999,19 +1824,19 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Marconi (2016)</t>
+          <t>Hosseini (2019)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zammit et al</t>
+          <t>Andreasson et al (1987)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2021,12 +1846,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>zammit_2002</t>
+          <t>andreasson_1987</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2056,7 +1881,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2071,19 +1896,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Moore (2007)</t>
+          <t>Semple (2005)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fergusson et al (2005)</t>
+          <t>Andreasson et al (1989)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2093,12 +1918,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>fergusson_2005</t>
+          <t>andreasson_1989</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2113,22 +1938,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2138,24 +1963,24 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Moore (2007)</t>
+          <t>Hosseini (2019)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fergusson et al (2005)</t>
+          <t>Andreasson et al (1987)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2165,12 +1990,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>fergusson_2005</t>
+          <t>andreasson_1987</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2185,12 +2010,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2200,7 +2025,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2210,7 +2035,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2222,27 +2047,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Semple (2005)</t>
+          <t>Hosseini (2019)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Degenhardt et al</t>
+          <t>Andreasson et al (1987)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cross-sectional</t>
+          <t>Cohort</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>degenhardt_2007</t>
+          <t>andreasson_1987</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2262,7 +2087,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2272,7 +2097,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2280,9 +2105,14 @@
           <t>1</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2191,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Semple (2005)</t>
+          <t>Hosseini (2019)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Andreasson et al (1989)</t>
+          <t>Andreasson et al (1987)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2376,12 +2206,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>andreasson_1989</t>
+          <t>andreasson_1987</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2406,7 +2236,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2426,19 +2256,19 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sorkhou (2021)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mustonen et al</t>
+          <t>Dragt et al (2012)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2448,12 +2278,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>mustonen_2018</t>
+          <t>dragt_2012</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2468,7 +2298,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2498,19 +2328,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kiburi (2021)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Manrique-Garcia et al</t>
+          <t>Dragt et al (2010)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2520,12 +2350,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>manrique-garcia_2012</t>
+          <t>dragt_2010</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2540,7 +2370,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2570,19 +2400,19 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hosseini (2019)</t>
+          <t>Kraan (2012)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zammit et al</t>
+          <t>Phillips et al</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2592,12 +2422,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>zammit_2011</t>
+          <t>phillips_2002</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2612,17 +2442,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2642,19 +2472,19 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hosseini (2019)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Zammit et al</t>
+          <t>Kristensen et al</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2664,12 +2494,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>zammit_2002</t>
+          <t>kristensen_2007</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2684,7 +2514,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2709,7 +2539,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2721,12 +2551,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hosseini (2019)</t>
+          <t>Kraan (2012)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Andreasson et al (1987)</t>
+          <t>Auther et al (2012)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2736,12 +2566,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>andreasson_1987</t>
+          <t>auther_2012</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2756,7 +2586,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2786,19 +2616,19 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hosseini (2019)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Andreasson et al (1987)</t>
+          <t>Auther et al (2015)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2808,12 +2638,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>andreasson_1987</t>
+          <t>auther_2015</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2828,12 +2658,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2853,24 +2683,24 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Riecher-Rossler et al</t>
+          <t>Valmaggia et al</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2880,12 +2710,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>riecher-rössler_2009</t>
+          <t>valmaggia_2014</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2900,12 +2730,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2937,12 +2767,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Velthorst et al</t>
+          <t>Buchy et al (2014)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2952,12 +2782,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>velthorst_2009</t>
+          <t>buchy_2014</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2972,7 +2802,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3002,19 +2832,19 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Kraan (2012)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bloemen et al</t>
+          <t>Auther et al (2012)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3024,12 +2854,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>bloemen_2010</t>
+          <t>auther_2012</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3069,24 +2899,24 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ziermans et al</t>
+          <t>Auther et al (2015)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3096,12 +2926,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ziermans_2011</t>
+          <t>auther_2015</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3121,12 +2951,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3141,96 +2971,36 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Oliver (2020)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Bousman et al</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bousman_2013</t>
+          <t>corcoran_2008</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Labad et al</t>
+          <t>Dragt et al (2012)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3240,12 +3010,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>labad_2015</t>
+          <t>dragt_2012</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3265,7 +3035,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3290,19 +3060,19 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lavoie et al</t>
+          <t>Dragt et al (2010)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3312,12 +3082,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>lavoie_2014</t>
+          <t>dragt_2010</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3337,7 +3107,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3357,24 +3127,24 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nieman et al</t>
+          <t>Dragt et al (2012)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3384,12 +3154,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>nieman_2014</t>
+          <t>dragt_2012</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3441,12 +3211,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nieman et al</t>
+          <t>Dragt et al (2010)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3456,12 +3226,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>nieman_2016</t>
+          <t>dragt_2010</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3513,12 +3283,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Berger et al</t>
+          <t>Buchy et al (2014)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3528,12 +3298,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>berger_2016</t>
+          <t>buchy_2014</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3548,7 +3318,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3578,19 +3348,19 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Oliver (2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Foecking et al</t>
+          <t>McHugh et al</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3600,12 +3370,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>foecking_2016</t>
+          <t>mchugh_2017</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3620,7 +3390,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3645,7 +3415,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3655,158 +3425,38 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Oliver (2020)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Seidman et al</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>seidman_2016</t>
+          <t>addington_2017</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>van der Meer (2012)</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Korver et al</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>korver_2010</t>
+          <t>atkinson_2017</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kraan (2012)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Auther et al (2012)</t>
+          <t>Berger et al</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3816,12 +3466,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>auther_2012</t>
+          <t>berger_2016</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3836,7 +3486,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3866,19 +3516,19 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kraan (2012)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Auther et al (2012)</t>
+          <t>Bloemen et al</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3888,12 +3538,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>auther_2012</t>
+          <t>bloemen_2010</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3933,24 +3583,24 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kraan (2012)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Phillips et al</t>
+          <t>Bousman et al</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3960,12 +3610,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>phillips_2002</t>
+          <t>bousman_2013</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3980,17 +3630,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4005,7 +3655,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4015,86 +3665,26 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Farris (2019)</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Auther et al (2015)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>auther_2015</t>
+          <t>devylder_2014</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Auther et al (2015)</t>
+          <t>Foecking et al</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4104,12 +3694,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>auther_2015</t>
+          <t>foecking_2016</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4124,12 +3714,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4161,12 +3751,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Buchy et al (2014)</t>
+          <t>Labad et al</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4176,12 +3766,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>buchy_2014</t>
+          <t>labad_2015</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4201,7 +3791,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4221,7 +3811,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4233,12 +3823,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Buchy et al (2014)</t>
+          <t>Lavoie et al</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4248,7 +3838,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>buchy_2014</t>
+          <t>lavoie_2014</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4273,7 +3863,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4298,19 +3888,19 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dragt et al (2012)</t>
+          <t>Nieman et al</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4320,12 +3910,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>dragt_2012</t>
+          <t>nieman_2014</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4377,27 +3967,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Carney (2017)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dragt et al (2012)</t>
+          <t>Nieman et al</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>Cross-sectional</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>dragt_2012</t>
+          <t>nieman_2014</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4412,12 +4002,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4427,15 +4017,10 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4449,12 +4034,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dragt et al (2012)</t>
+          <t>Riecher-Rossler et al</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4464,12 +4049,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>dragt_2012</t>
+          <t>riecher-rössler_2009</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4484,7 +4069,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4514,19 +4099,19 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dragt et al (2010)</t>
+          <t>Seidman et al</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4536,12 +4121,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>dragt_2010</t>
+          <t>seidman_2016</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4581,24 +4166,24 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dragt et al (2010)</t>
+          <t>Velthorst et al</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4608,12 +4193,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>dragt_2010</t>
+          <t>velthorst_2009</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4628,7 +4213,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4653,24 +4238,24 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dragt et al (2010)</t>
+          <t>Ziermans et al</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4680,12 +4265,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>dragt_2010</t>
+          <t>ziermans_2011</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4710,7 +4295,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4725,24 +4310,24 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>van der Meer (2012)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kristensen et al</t>
+          <t>Korver et al</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4752,12 +4337,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>kristensen_2007</t>
+          <t>korver_2010</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4809,12 +4394,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>van der Meer (2012)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>McHugh et al</t>
+          <t>Korver et al</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4824,12 +4409,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>mchugh_2017</t>
+          <t>korver_2010</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4886,22 +4471,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Valmaggia et al</t>
+          <t>Machielsen et al</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>Cross-sectional</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>valmaggia_2014</t>
+          <t>machielsen_2010</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4916,12 +4501,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4931,7 +4516,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4939,14 +4524,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4538,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gill et al.</t>
+          <t>Mizrahi et al</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4968,12 +4548,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>gill_2015</t>
+          <t>mizrahi_2014</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4988,7 +4568,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5013,34 +4593,34 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Carney (2017)</t>
+          <t>Oliver (2020)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mizrahi et al</t>
+          <t>Nieman et al</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cross-sectional</t>
+          <t>Cohort</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>mizrahi_2014</t>
+          <t>nieman_2016</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5055,12 +4635,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5070,10 +4650,15 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5102,12 +4687,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>nieman_2014</t>
+          <t>nieman_2016</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5159,7 +4744,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nieman et al</t>
+          <t>Gill et al.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5169,12 +4754,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>nieman_2016</t>
+          <t>gill_2015</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5189,7 +4774,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5214,822 +4799,182 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Farris (2019)</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Machielsen et al</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Cross-sectional</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>machielsen_2010</t>
+          <t>aadamsoo_2011</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Carney (2017)</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Bugra et al</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Cross-sectional</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>bugra_2013</t>
+          <t>addington_2006</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>alderson_2017</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>amin_1999</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>amini_2005</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>arendt_2005</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>arendt_2008</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>bachmann_2008</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>baldwin_2005</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>björkenstam_2013</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Sabe (2020)</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Bersani et al</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Cross-sectional</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>bersani_2002</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Sabe (2020)</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>van Dijk et al</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Cross-sectional</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>van dijk_2012</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Caspari(1999)</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>caspari_1999</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Faridi(2012)</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>faridi_2012</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>González-Pinto(2009)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>gonzález-pinto_2009</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>bromet_2011</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>castagnini_2008</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>castro-fornieles_2011</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>chang_2009</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Grech(2005)</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>grech_2005</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Linszen(1994)</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>linszen_1994</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Negrete(1986)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>negrete_1986</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>San(2013)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>san_2013</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Sara(2014)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>sara_2014</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Sorbara(2003)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>sorbara_2003</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Stirling(2005)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>stirling_2005</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
     </row>
     <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Van der Meer(2015)</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>van der meer_2015</t>
+          <t>chen_2015</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6037,300 +4982,215 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Wade(2006)</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>wade_2006</t>
+          <t>crebbin_2009</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>konings_2012</t>
+          <t>enderami_2017</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>arseneault_2002</t>
+          <t>fraguas_2008</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="D87" t="inlineStr">
         <is>
-          <t>weiser_2002</t>
+          <t>haahr_2008</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>corcoran_2008</t>
+          <t>heslin_2015</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>addington_2017</t>
+          <t>jarbin_2003</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>atkinson_2017</t>
+          <t>kim_2011</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>devylder_2014</t>
+          <t>kingston_2013</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="D92" t="inlineStr">
         <is>
-          <t>aadamsoo_2011</t>
+          <t>kittirattanapaiboon_2010</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>addington_2006</t>
+          <t>komuravelli_2011</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="D94" t="inlineStr">
         <is>
-          <t>alderson_2017</t>
+          <t>marneros_2003</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>amin_1999</t>
+          <t>mauri_2017</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="D96" t="inlineStr">
         <is>
-          <t>amini_2005</t>
+          <t>medhus_2016</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>arendt_2005</t>
+          <t>narayanaswamy_2012</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>arendt_2008</t>
+          <t>niemi-pynttari_2013</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>bachmann_2008</t>
+          <t>pillman_2002</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>baldwin_2005</t>
+          <t>poon_2017</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="D101" t="inlineStr">
         <is>
-          <t>björkenstam_2013</t>
+          <t>pope_2013</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6342,79 +5202,129 @@
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>bromet_2011</t>
+          <t>rahm_2007</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>castagnini_2008</t>
+          <t>rusaka_2014</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="D104" t="inlineStr">
         <is>
-          <t>castro-fornieles_2011</t>
+          <t>salvatore_2009</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Sara(2014)</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>chang_2009</t>
+          <t>sara_2014</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="D106" t="inlineStr">
         <is>
-          <t>chen_2015</t>
+          <t>schimmelmann_2005</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="D107" t="inlineStr">
         <is>
-          <t>crebbin_2009</t>
+          <t>schwartz_2000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
-          <t>enderami_2017</t>
+          <t>shinn_2017</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6426,670 +5336,2542 @@
     <row r="109">
       <c r="D109" t="inlineStr">
         <is>
-          <t>fraguas_2008</t>
+          <t>singal_2015</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="D110" t="inlineStr">
         <is>
-          <t>haahr_2008</t>
+          <t>singh_2004</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2004</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="inlineStr">
         <is>
-          <t>heslin_2015</t>
+          <t>starzer_2017</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="D112" t="inlineStr">
         <is>
-          <t>jarbin_2003</t>
+          <t>subramaniam_2007</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="D113" t="inlineStr">
         <is>
-          <t>kim_2011</t>
+          <t>suda_2005</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="D114" t="inlineStr">
         <is>
-          <t>kingston_2013</t>
+          <t>veen_2004</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2004</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>kittirattanapaiboon_2010</t>
+          <t>whitty_2005</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="D116" t="inlineStr">
         <is>
-          <t>komuravelli_2011</t>
+          <t>wright_1988</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1988</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="D117" t="inlineStr">
         <is>
-          <t>marneros_2003</t>
+          <t>zhang-wong_1995</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Semple (2005)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Degenhardt et al</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>mauri_2017</t>
+          <t>degenhardt_2007</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Caspari(1999)</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>medhus_2016</t>
+          <t>caspari_1999</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Stirling(2005)</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>narayanaswamy_2012</t>
+          <t>stirling_2005</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="D121" t="inlineStr">
         <is>
-          <t>niemi-pynttari_2013</t>
+          <t>arias horcajadas_2002</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="D122" t="inlineStr">
         <is>
-          <t>pillman_2002</t>
+          <t>baeza_2009</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>González-Pinto(2009)</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>poon_2017</t>
+          <t>gonzález-pinto_2009</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Faridi(2012)</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>pope_2013</t>
+          <t>faridi_2012</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="D125" t="inlineStr">
         <is>
-          <t>rahm_2007</t>
+          <t>barrowclough_2013</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Linszen(1994)</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>rusaka_2014</t>
+          <t>linszen_1994</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sabe (2020)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Bersani et al</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>salvatore_2009</t>
+          <t>bersani_2002</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Hides et al. (2006)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>schimmelmann_2005</t>
+          <t>hides_2006</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Wade(2006)</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>schwartz_2000</t>
+          <t>wade_2006</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="D130" t="inlineStr">
         <is>
-          <t>shinn_2017</t>
+          <t>martínez arévalo_1994</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1994</t>
         </is>
       </c>
     </row>
     <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Negrete(1986)</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>singal_2015</t>
+          <t>negrete_1986</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Sorbara(2003)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>sorbara_2003</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sabe (2020)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>van Dijk et al</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>van dijk_2012</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>San(2013)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>san_2013</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Van der Meer(2015)</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>van der meer_2015</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>2015</t>
         </is>
       </c>
-    </row>
-    <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>singh_2004</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>starzer_2017</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>subramaniam_2007</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>suda_2005</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2005</t>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="inlineStr">
         <is>
-          <t>veen_2004</t>
+          <t>addington_2007</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="inlineStr">
         <is>
-          <t>whitty_2005</t>
+          <t>barrowclough_2015</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Bergé et al. (2016)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>wright_1988</t>
+          <t>bergé_2016</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Clausen et al. (2014)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>zhang-wong_1995</t>
+          <t>clausen_2014</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Colizzi et al. (2016)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>arias horcajadas_2002</t>
+          <t>colizzi_2016</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Emsley et al. (2019)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>baeza_2009</t>
+          <t>emsley_2019</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="D142" t="inlineStr">
         <is>
-          <t>barrowclough_2013</t>
+          <t>fond_2019</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="D143" t="inlineStr">
         <is>
-          <t>hides_2006</t>
+          <t>foti_2010</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Grech(2005)</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>martínez arévalo_1994</t>
+          <t>grech_2005</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Hadden et al. (2016)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>addington_2007</t>
+          <t>hadden_2016</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Ouellet-Plamondon et al. (2017)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>barrowclough_2015</t>
+          <t>ouellet-plamondon_2017</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="inlineStr">
         <is>
-          <t>bergé_2016</t>
+          <t>schimmelmann_2011</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Seddon et al (2016)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>seddon_2016</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>clausen_2014</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Setién-Suero et al. (2019)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>setién-suero_2019</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Stone et al. (2014)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>stone_2014</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-    </row>
-    <row r="149">
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>colizzi_2016</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>emsley_2019</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2019</t>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Marino et al. (2020)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>fond_2019</t>
+          <t>marino_2020</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Rentero et al. (2020)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>foti_2010</t>
+          <t>rentero_2020</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="D153" t="inlineStr">
         <is>
-          <t>hadden_2016</t>
+          <t>rømer thomsen_2018</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Schoeler et al. (2016a)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>schoeler_2016</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-    </row>
-    <row r="154">
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>ouellet-plamondon_2017</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2017</t>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Schoeler et al. (2016b)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>schimmelmann_2011</t>
+          <t>schoeler_2016</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Kiburi (2021)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Mackie et al</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>seddon_2016</t>
+          <t>mackie_2013</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Kiburi (2021)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Manrique-Garcia et al</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>setién-suero_2019</t>
+          <t>manrique-garcia_2012</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Marconi (2016)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>McGrath et al</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>stone_2014</t>
+          <t>mcgrath_2010</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sorkhou (2021)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Bechtold et al</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>marino_2020</t>
+          <t>bechtold_2015</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Henquet (2005)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Henquet et al</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>rentero_2020</t>
+          <t>henquet_2004</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Carney (2017)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Bugra et al</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>rømer thomsen_2018</t>
+          <t>bugra_2013</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="D162" t="inlineStr">
         <is>
-          <t>schoeler_2016</t>
+          <t>marwaha_2018</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Godin (2022)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Gage et al</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>marwaha_2018</t>
+          <t>gage_2014</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>van der Steur (2020)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Leadbeater et al</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>leadbeater_2019</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" t="inlineStr">
+        <is>
           <t>albertella_2018</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
